--- a/Data/Output/Alejandra_datos.xlsx
+++ b/Data/Output/Alejandra_datos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,26 +486,20 @@
           <t>941</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>11012024</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Ejemplo Name</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11012024 </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>12345.67</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>123456</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>Settlement Date no encontrado</t>
         </is>
       </c>
     </row>
@@ -515,26 +509,28 @@
           <t>EDD</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>11012024</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11012024 </t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ejemplo Name</t>
+          <t>ALEJANDRA'S FASHIOÓN, INC.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>123.45</v>
-      </c>
-      <c r="H3" t="n">
-        <v>123456</v>
-      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4,438.24</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-08</t>
         </is>
       </c>
     </row>
@@ -544,19 +540,25 @@
           <t>general</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>11012024</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>11012024</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ejemplo Name</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>123.45</v>
-      </c>
-      <c r="E4" t="n">
-        <v>678.9</v>
+          <t>ALEJANDRAS FASHION INC</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>35783.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4438.24</t>
+        </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -569,26 +571,32 @@
           <t>941</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>11082024</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11082024 </t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ejemplo Name</t>
+          <t>ALEJANDRA S FASHIÓON INC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="n">
-        <v>12345.67</v>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>36,233.65</t>
+        </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>123456</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-13</t>
         </is>
       </c>
     </row>
@@ -598,26 +606,28 @@
           <t>EDD</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>11082024</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11082024 </t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ejemplo Name</t>
+          <t>ALEJANDRA'S FASHIOÓN, INC.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="n">
-        <v>123.45</v>
-      </c>
-      <c r="H6" t="n">
-        <v>123456</v>
-      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4,416.39</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-13</t>
         </is>
       </c>
     </row>
@@ -627,19 +637,25 @@
           <t>general</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>11082024</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>11082024</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ejemplo Name</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>123.45</v>
-      </c>
-      <c r="E7" t="n">
-        <v>678.9</v>
+          <t>ALEJANDRAS FASHION INC</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36233.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4416.39</t>
+        </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -652,26 +668,32 @@
           <t>941</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>11152024</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11152024  </t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ejemplo Name</t>
+          <t>ALEJANDRA S FASHIÓON INC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>12345.67</v>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>38,771.93</t>
+        </is>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>123456</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-20</t>
         </is>
       </c>
     </row>
@@ -681,26 +703,28 @@
           <t>EDD</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>11152024</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11152024 </t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ejemplo Name</t>
+          <t>ALEJANDRA'S FASHIOÓN, INC.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="n">
-        <v>123.45</v>
-      </c>
-      <c r="H9" t="n">
-        <v>123456</v>
-      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4,793.73</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-20</t>
         </is>
       </c>
     </row>
@@ -710,19 +734,25 @@
           <t>general</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>11152024</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11152024</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ejemplo Name</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>123.45</v>
-      </c>
-      <c r="E10" t="n">
-        <v>678.9</v>
+          <t>ALEJANDRAS FASHION INC</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38771.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>4793.73</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -735,26 +765,32 @@
           <t>941</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>11222024</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11222024 </t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ejemplo Name</t>
+          <t>ALEJANDRA S FASHIÓON INC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>12345.67</v>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>37,915.74</t>
+        </is>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>123456</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -764,26 +800,28 @@
           <t>EDD</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>11222024</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11222024 </t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ejemplo Name</t>
+          <t>ALEJANDRA'S FASHIOÓN, INC.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="n">
-        <v>123.45</v>
-      </c>
-      <c r="H12" t="n">
-        <v>123456</v>
-      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4,702.90</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-11-27</t>
         </is>
       </c>
     </row>
@@ -793,19 +831,25 @@
           <t>general</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>11222024</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>11222024</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ejemplo Name</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>123.45</v>
-      </c>
-      <c r="E13" t="n">
-        <v>678.9</v>
+          <t>ALEJANDRAS FASHION INC</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37915.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>4702.90</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -818,26 +862,32 @@
           <t>941</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>11292024</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11292024 </t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ejemplo Name</t>
+          <t>ALEJANDRA S FASHIÓON INC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>12345.67</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>41,179.84</t>
+        </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>123456</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-12-04</t>
         </is>
       </c>
     </row>
@@ -847,26 +897,28 @@
           <t>EDD</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>11292024</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11292024 </t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ejemplo Name</t>
+          <t>ALEJANDRA'S FASHIOÓN, INC.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>123.45</v>
-      </c>
-      <c r="H15" t="n">
-        <v>123456</v>
-      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>5,151.26</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>2024-12-04</t>
         </is>
       </c>
     </row>
@@ -876,510 +928,31 @@
           <t>general</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>11292024</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11292024</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ejemplo Name</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>123.45</v>
-      </c>
-      <c r="E16" t="n">
-        <v>678.9</v>
+          <t>ALEJANDRAS FASHION INC</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>41179.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5151.17</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11012024 </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>ALEJANDRA S FASHIÓON INC</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>35,783.00</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>5293</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>2024-11-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>EDD</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11012024 </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>ALEJANDRA'S FASHIOÓN, INC.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>4,438.24</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>2024-11-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>11012024</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>ALEJANDRAS FASHION INC</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>35783.00</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4438.24</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11082024 </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>ALEJANDRA S FASHIÓON INC</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>36,233.65</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>5293</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>2024-11-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>EDD</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11082024 </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>ALEJANDRA'S FASHIOÓN, INC.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>4,416.39</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2024-11-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>11082024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>ALEJANDRAS FASHION INC</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>36233.65</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4416.39</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11152024  </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>ALEJANDRA S FASHIÓON INC</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>38,771.93</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>5293</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2024-11-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>EDD</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11152024 </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>ALEJANDRA'S FASHIOÓN, INC.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>4,793.73</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>2024-11-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>11152024</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>ALEJANDRAS FASHION INC</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>38771.93</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4793.73</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11222024 </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>ALEJANDRA S FASHIÓON INC</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>37,915.74</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>5293</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>2024-11-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>EDD</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11222024 </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>ALEJANDRA'S FASHIOÓN, INC.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>4,702.90</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>2024-11-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>11222024</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>ALEJANDRAS FASHION INC</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>37915.74</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4702.90</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>941</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11292024 </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>ALEJANDRA S FASHIÓON INC</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>41,179.84</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>5293</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>2024-12-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>EDD</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11292024 </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>ALEJANDRA'S FASHIOÓN, INC.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>5,151.26</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>2024-12-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>general</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>11292024</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>ALEJANDRAS FASHION INC</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>41179.84</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>5151.17</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Data/Output/Alejandra_datos.xlsx
+++ b/Data/Output/Alejandra_datos.xlsx
@@ -491,15 +491,27 @@
           <t xml:space="preserve">11012024 </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ALEJANDRA S FASHIÓON INC</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>35,783.00</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>5293</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Settlement Date no encontrado</t>
+          <t>2024-11-08</t>
         </is>
       </c>
     </row>
